--- a/BASE_DE_DATOS - TAREAS/Paneles_solares_con_outliers - copia.xlsx
+++ b/BASE_DE_DATOS - TAREAS/Paneles_solares_con_outliers - copia.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237B9B4-C588-4063-960E-AB6CC58BACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF51C9-24EE-4C13-87C4-9F9E3CA22DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos CSV" sheetId="8" r:id="rId1"/>
     <sheet name="Limpieza de Datos" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId3"/>
+    <sheet name="Presentación Excel" sheetId="10" r:id="rId3"/>
     <sheet name="Datos Limpios" sheetId="2" r:id="rId4"/>
     <sheet name="Estadistica Descriptiva" sheetId="3" r:id="rId5"/>
     <sheet name="Reporte 1" sheetId="5" r:id="rId6"/>
     <sheet name="Reporte 2" sheetId="9" r:id="rId7"/>
+    <sheet name="Presentación Power Bi" sheetId="11" r:id="rId8"/>
+    <sheet name="Informe Power Bi" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Datos Limpios'!$A$1:$I$458</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Estadistica Descriptiva'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Hoja1!$A$1:$G$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Informe Power Bi'!$A$2:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Presentación Excel'!$A$1:$G$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Presentación Power Bi'!$A$1:$G$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Reporte 1'!$A$1:$C$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Reporte 2'!$A$1:$I$14</definedName>
     <definedName name="SegmentaciónDeDatos_Ciudad1">#N/A</definedName>
@@ -36,15 +40,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="48" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -6023,6 +6027,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6038,6 +6047,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6053,6 +6067,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6068,6 +6087,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6083,6 +6107,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6098,6 +6127,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6215,6 +6249,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6230,6 +6269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6245,6 +6289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6260,6 +6309,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6275,6 +6329,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6290,6 +6349,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-6228-4087-B8CF-2EB77626561C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -10433,6 +10497,100 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4640181" cy="1782924"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66822B5E-CA3E-4C79-B135-2507D8F3924D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4823460"/>
+          <a:ext cx="4640181" cy="1782924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>PRESENTACIÓN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>EXCEL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10478,14 +10636,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10938,8 +11096,309 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110489</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BBDA27-B444-4E2A-8DF0-15AB4035A1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5657849" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590754</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4640181" cy="1782924"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4289640-EC09-CFBE-6E49-812C3E3AB011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590754" y="4754695"/>
+          <a:ext cx="4640181" cy="1782924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>PRESENTACIÓN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>POWER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="5400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> BI</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E917D5-D9B1-7DC1-7CAA-66DA60DC99E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="624840"/>
+          <a:ext cx="7772400" cy="4341065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1007A06-1A95-6A3E-EF09-44FA8E4E7092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="7772400" cy="4404966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Raúl" refreshedDate="45973.843843055554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="460" xr:uid="{534E33BA-A8E2-4E2A-AB98-E8A09827C5E2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Raúl" refreshedDate="45974.841608912036" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="460" xr:uid="{534E33BA-A8E2-4E2A-AB98-E8A09827C5E2}">
   <cacheSource type="worksheet">
     <worksheetSource name="DATOS_LIMPIOS_ELECT"/>
   </cacheSource>
@@ -16072,7 +16531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75658A4E-3DDC-4A38-B01F-CB527E5B372D}" name="TablaDinámica1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75658A4E-3DDC-4A38-B01F-CB527E5B372D}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:C67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -16369,7 +16828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCC09C16-E7E2-48C1-B2AA-91DE4E91DFB1}" name="TablaDinámica1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Reporte 2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCC09C16-E7E2-48C1-B2AA-91DE4E91DFB1}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Reporte 2">
   <location ref="A4:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -16622,6 +17081,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Comercial"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="5"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
@@ -19338,7 +19802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K468"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -37013,16 +37477,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB658047-3F56-4D34-8A72-41B7B0279C99}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -37034,8 +37506,8 @@
   </sheetPr>
   <dimension ref="A1:I461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41604,7 +42076,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>159</v>
       </c>
@@ -41634,7 +42106,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>160</v>
       </c>
@@ -41664,7 +42136,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>161</v>
       </c>
@@ -41754,7 +42226,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>164</v>
       </c>
@@ -41784,7 +42256,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>165</v>
       </c>
@@ -41814,7 +42286,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>166</v>
       </c>
@@ -41874,7 +42346,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>168</v>
       </c>
@@ -41934,7 +42406,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>170</v>
       </c>
@@ -41964,7 +42436,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>171</v>
       </c>
@@ -41994,7 +42466,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>172</v>
       </c>
@@ -42114,7 +42586,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>176</v>
       </c>
@@ -42174,7 +42646,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>178</v>
       </c>
@@ -42264,7 +42736,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>181</v>
       </c>
@@ -42294,7 +42766,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>182</v>
       </c>
@@ -42324,7 +42796,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>183</v>
       </c>
@@ -42354,7 +42826,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>184</v>
       </c>
@@ -42414,7 +42886,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>186</v>
       </c>
@@ -42474,7 +42946,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>188</v>
       </c>
@@ -42504,7 +42976,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>189</v>
       </c>
@@ -42564,7 +43036,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>191</v>
       </c>
@@ -42594,7 +43066,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>192</v>
       </c>
@@ -42654,7 +43126,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>194</v>
       </c>
@@ -42684,7 +43156,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>195</v>
       </c>
@@ -42714,7 +43186,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>196</v>
       </c>
@@ -42744,7 +43216,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>197</v>
       </c>
@@ -42834,7 +43306,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>200</v>
       </c>
@@ -42864,7 +43336,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>201</v>
       </c>
@@ -42894,7 +43366,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>202</v>
       </c>
@@ -42924,7 +43396,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>203</v>
       </c>
@@ -42984,7 +43456,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>205</v>
       </c>
@@ -43014,7 +43486,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>206</v>
       </c>
@@ -43044,7 +43516,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>207</v>
       </c>
@@ -43104,7 +43576,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>209</v>
       </c>
@@ -43134,7 +43606,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>210</v>
       </c>
@@ -43164,7 +43636,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>211</v>
       </c>
@@ -43194,7 +43666,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>212</v>
       </c>
@@ -43224,7 +43696,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>213</v>
       </c>
@@ -43254,7 +43726,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>214</v>
       </c>
@@ -43284,7 +43756,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>215</v>
       </c>
@@ -43314,7 +43786,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>216</v>
       </c>
@@ -43344,7 +43816,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>217</v>
       </c>
@@ -43374,7 +43846,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>218</v>
       </c>
@@ -43404,7 +43876,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>219</v>
       </c>
@@ -43464,7 +43936,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>221</v>
       </c>
@@ -43524,7 +43996,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>223</v>
       </c>
@@ -43644,7 +44116,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>227</v>
       </c>
@@ -43674,7 +44146,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>228</v>
       </c>
@@ -43704,7 +44176,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>229</v>
       </c>
@@ -43764,7 +44236,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>231</v>
       </c>
@@ -43794,7 +44266,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>232</v>
       </c>
@@ -43824,7 +44296,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>233</v>
       </c>
@@ -43854,7 +44326,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>234</v>
       </c>
@@ -43884,7 +44356,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>235</v>
       </c>
@@ -43914,7 +44386,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>236</v>
       </c>
@@ -43944,7 +44416,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>237</v>
       </c>
@@ -43974,7 +44446,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>238</v>
       </c>
@@ -44004,7 +44476,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>239</v>
       </c>
@@ -44034,7 +44506,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>240</v>
       </c>
@@ -44064,7 +44536,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>241</v>
       </c>
@@ -44124,7 +44596,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>243</v>
       </c>
@@ -44214,7 +44686,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>246</v>
       </c>
@@ -44244,7 +44716,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>247</v>
       </c>
@@ -44274,7 +44746,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>248</v>
       </c>
@@ -44364,7 +44836,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>251</v>
       </c>
@@ -44394,7 +44866,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>252</v>
       </c>
@@ -44454,7 +44926,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>254</v>
       </c>
@@ -44484,7 +44956,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>255</v>
       </c>
@@ -44574,7 +45046,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>258</v>
       </c>
@@ -44604,7 +45076,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>259</v>
       </c>
@@ -44634,7 +45106,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>260</v>
       </c>
@@ -44664,7 +45136,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>261</v>
       </c>
@@ -44694,7 +45166,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>262</v>
       </c>
@@ -44724,7 +45196,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>263</v>
       </c>
@@ -44754,7 +45226,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>264</v>
       </c>
@@ -44784,7 +45256,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>265</v>
       </c>
@@ -44814,7 +45286,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>266</v>
       </c>
@@ -44874,7 +45346,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>268</v>
       </c>
@@ -44904,7 +45376,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>269</v>
       </c>
@@ -44934,7 +45406,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>270</v>
       </c>
@@ -44994,7 +45466,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>272</v>
       </c>
@@ -45024,7 +45496,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>273</v>
       </c>
@@ -45054,7 +45526,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>274</v>
       </c>
@@ -45114,7 +45586,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>276</v>
       </c>
@@ -45174,7 +45646,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>278</v>
       </c>
@@ -45234,7 +45706,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>280</v>
       </c>
@@ -45264,7 +45736,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>281</v>
       </c>
@@ -45294,7 +45766,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>282</v>
       </c>
@@ -45354,7 +45826,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>284</v>
       </c>
@@ -45384,7 +45856,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>285</v>
       </c>
@@ -45414,7 +45886,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>286</v>
       </c>
@@ -45504,7 +45976,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>289</v>
       </c>
@@ -45564,7 +46036,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>291</v>
       </c>
@@ -45594,7 +46066,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>292</v>
       </c>
@@ -45624,7 +46096,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>293</v>
       </c>
@@ -45684,7 +46156,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>295</v>
       </c>
@@ -45744,7 +46216,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>297</v>
       </c>
@@ -45774,7 +46246,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>298</v>
       </c>
@@ -45834,7 +46306,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>300</v>
       </c>
@@ -45864,7 +46336,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>301</v>
       </c>
@@ -45894,7 +46366,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>302</v>
       </c>
@@ -45954,7 +46426,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>304</v>
       </c>
@@ -45984,7 +46456,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>305</v>
       </c>
@@ -46014,7 +46486,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>306</v>
       </c>
@@ -46044,7 +46516,7 @@
         <v>VALIDO</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>307</v>
       </c>
@@ -50903,7 +51375,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LElaborado por: Raúl Vicuña&amp;C&amp;A&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -50937,8 +51410,8 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51208,7 +51681,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LElaborado por: Raúl Vicuña&amp;C&amp;A&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="5">
@@ -51228,8 +51702,8 @@
   </sheetPr>
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52171,7 +52645,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <headerFooter>
-    <oddHeader>&amp;LElaborado por: Raúl Vicuña&amp;C&amp;A&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -52183,8 +52658,8 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52277,7 +52752,8 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <headerFooter>
-    <oddHeader>&amp;LElaborado por: Raúl Vicuña&amp;C&amp;A&amp;R&amp;D</oddHeader>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
   </headerFooter>
   <drawing r:id="rId3"/>
   <extLst>
@@ -52287,6 +52763,54 @@
       </x14:slicerList>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1696CC-5FF7-4186-BFFC-BEADE97CB72F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1712E6-DA96-410B-ABAE-5B14E85BFEE7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LELABORADO POR:
+RAÚL VICUÑA&amp;C&amp;A&amp;R&amp;D</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BASE_DE_DATOS - TAREAS/Paneles_solares_con_outliers - copia.xlsx
+++ b/BASE_DE_DATOS - TAREAS/Paneles_solares_con_outliers - copia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29515"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADF51C9-24EE-4C13-87C4-9F9E3CA22DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB72CB9-5A95-446D-9ACF-92AFD11C8270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3095,6 +3095,100 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="49">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -3390,100 +3484,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -16531,7 +16531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75658A4E-3DDC-4A38-B01F-CB527E5B372D}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75658A4E-3DDC-4A38-B01F-CB527E5B372D}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:C67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -16828,7 +16828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCC09C16-E7E2-48C1-B2AA-91DE4E91DFB1}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Reporte 2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCC09C16-E7E2-48C1-B2AA-91DE4E91DFB1}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Reporte 2">
   <location ref="A4:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -17020,7 +17020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C9B09E5-FEE6-46BC-AD89-2B17F7D99500}" name="Tabla1" displayName="Tabla1" ref="A8:K468" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C9B09E5-FEE6-46BC-AD89-2B17F7D99500}" name="Tabla1" displayName="Tabla1" ref="A8:K468" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A8:K468" xr:uid="{7C9B09E5-FEE6-46BC-AD89-2B17F7D99500}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17035,21 +17035,21 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{57D963E6-8557-443E-AB14-6E62BD80BA8B}" name="ID_Cliente" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7B49E91B-5628-4171-A902-459278E17C9F}" name="Sector" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{43CF3FBE-CF66-4363-BA94-D5B397391160}" name="Consumo_kWh_Mensual" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{A8774916-0027-48B3-BC9C-A383E35A6162}" name="Estrato" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{E71B1918-93B1-45F3-9904-D1F9DCC35ECA}" name="Ciudad" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{723DDCE3-59CC-45DE-AF1F-0EFC7833DCF7}" name="Area_m2" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{051371B7-D2C0-4CCC-8293-4800402FA4D1}" name="Factura_Mensual_COP" dataDxfId="21" dataCellStyle="Millares"/>
-    <tableColumn id="8" xr3:uid="{81353211-DF9B-45E5-BAB3-E5D6DB87F3FD}" name="Puede_Pagar_Solar" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{AE592938-674B-40B1-80B0-1C57A6FFA7D1}" name="Estadistico Consumo_kWh_Mensual" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{57D963E6-8557-443E-AB14-6E62BD80BA8B}" name="ID_Cliente" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{7B49E91B-5628-4171-A902-459278E17C9F}" name="Sector" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{43CF3FBE-CF66-4363-BA94-D5B397391160}" name="Consumo_kWh_Mensual" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{A8774916-0027-48B3-BC9C-A383E35A6162}" name="Estrato" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{E71B1918-93B1-45F3-9904-D1F9DCC35ECA}" name="Ciudad" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{723DDCE3-59CC-45DE-AF1F-0EFC7833DCF7}" name="Area_m2" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{051371B7-D2C0-4CCC-8293-4800402FA4D1}" name="Factura_Mensual_COP" dataDxfId="39" dataCellStyle="Millares"/>
+    <tableColumn id="8" xr3:uid="{81353211-DF9B-45E5-BAB3-E5D6DB87F3FD}" name="Puede_Pagar_Solar" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{AE592938-674B-40B1-80B0-1C57A6FFA7D1}" name="Estadistico Consumo_kWh_Mensual" dataDxfId="37">
       <calculatedColumnFormula array="1">_xlfn.IFS(Tabla1[[#This Row],[Consumo_kWh_Mensual]]&lt;$B$5,NA(),Tabla1[[#This Row],[Consumo_kWh_Mensual]]&gt;$B$6,NA(),Tabla1[[#This Row],[Consumo_kWh_Mensual]]&lt;$B$6,Tabla1[[#This Row],[Consumo_kWh_Mensual]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C8189554-5D2B-4B81-B01A-D828E25D03F4}" name="Estadistico Area_m2" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{C8189554-5D2B-4B81-B01A-D828E25D03F4}" name="Estadistico Area_m2" dataDxfId="36">
       <calculatedColumnFormula array="1">_xlfn.IFS(Tabla1[[#This Row],[Area_m2]]&lt;$C$5,NA(),Tabla1[[#This Row],[Area_m2]]&gt;$C$6,NA(),Tabla1[[#This Row],[Area_m2]]&lt;$C$6,Tabla1[[#This Row],[Area_m2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0FC1A642-FF3D-4824-856F-B5FDABC440AA}" name="Estadistico Factura_Mensual_COP2" dataDxfId="17" dataCellStyle="Millares">
+    <tableColumn id="11" xr3:uid="{0FC1A642-FF3D-4824-856F-B5FDABC440AA}" name="Estadistico Factura_Mensual_COP2" dataDxfId="35" dataCellStyle="Millares">
       <calculatedColumnFormula array="1">_xlfn.IFS(Tabla1[[#This Row],[Factura_Mensual_COP]]&lt;$D$5,NA(),Tabla1[[#This Row],[Factura_Mensual_COP]]&gt;$D$6,NA(),Tabla1[[#This Row],[Factura_Mensual_COP]]&lt;$D$6,Tabla1[[#This Row],[Factura_Mensual_COP]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17058,7 +17058,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0E21FF2-DD30-42B1-8E9B-35F2462D1C50}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0E21FF2-DD30-42B1-8E9B-35F2462D1C50}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:D6" xr:uid="{D0E21FF2-DD30-42B1-8E9B-35F2462D1C50}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17066,17 +17066,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3E0EA47D-E58C-40D7-BBE3-7D5D87DCEE20}" name="CUARTILES" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0C3AFDCF-966D-42B3-BB41-22FDDCCC45F8}" name="Consumo_kWh_Mensual" dataDxfId="13" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{3FC3CE90-5DD2-4F82-BD35-A205AEED6D11}" name="Area_m2" dataDxfId="12" dataCellStyle="Millares"/>
-    <tableColumn id="4" xr3:uid="{9E493BCC-77D1-4ACA-A476-1C0FAC932995}" name="Factura_Mensual_COP" dataDxfId="11" dataCellStyle="Millares"/>
+    <tableColumn id="1" xr3:uid="{3E0EA47D-E58C-40D7-BBE3-7D5D87DCEE20}" name="CUARTILES" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{0C3AFDCF-966D-42B3-BB41-22FDDCCC45F8}" name="Consumo_kWh_Mensual" dataDxfId="31" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{3FC3CE90-5DD2-4F82-BD35-A205AEED6D11}" name="Area_m2" dataDxfId="30" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{9E493BCC-77D1-4ACA-A476-1C0FAC932995}" name="Factura_Mensual_COP" dataDxfId="29" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{000F2CDB-C95C-4F6A-B0EA-D5629C8614AB}" name="DATOS_LIMPIOS_ELECT" displayName="DATOS_LIMPIOS_ELECT" ref="A1:I461" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{000F2CDB-C95C-4F6A-B0EA-D5629C8614AB}" name="DATOS_LIMPIOS_ELECT" displayName="DATOS_LIMPIOS_ELECT" ref="A1:I461" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:I461" xr:uid="{000F2CDB-C95C-4F6A-B0EA-D5629C8614AB}">
     <filterColumn colId="1">
       <filters>
@@ -17095,15 +17095,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{049E53D5-EC4E-4920-B5B9-41F9E3C236E9}" name="ID_Cliente" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0226E94F-625F-4E17-B1B0-2767DFBA888F}" name="Sector" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{16098384-51D3-4696-87A1-D0150C5ECC78}" name="Consumo_kWh_Mensual" dataDxfId="6" dataCellStyle="Millares"/>
-    <tableColumn id="4" xr3:uid="{AE917A0B-BEE3-44CF-8201-1BB2407D64BC}" name="Estrato" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EA2B95DF-A0B7-4076-A4EE-9A7C54135A3F}" name="Ciudad" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9DDBC685-120C-47D2-892B-7ACB1E6F23B6}" name="Area_m2" dataDxfId="3" dataCellStyle="Millares"/>
-    <tableColumn id="7" xr3:uid="{BB47E6AE-81F0-47DC-9EA9-07396B917E24}" name="Factura_Mensual_COP" dataDxfId="2" dataCellStyle="Millares"/>
-    <tableColumn id="8" xr3:uid="{E60E1A0F-4138-4B92-A786-C27A4F8A5D9E}" name="Puede_Pagar_Solar" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{20854677-37AB-41FD-A44B-255102CC53C1}" name="Validar" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{049E53D5-EC4E-4920-B5B9-41F9E3C236E9}" name="ID_Cliente" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{0226E94F-625F-4E17-B1B0-2767DFBA888F}" name="Sector" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{16098384-51D3-4696-87A1-D0150C5ECC78}" name="Consumo_kWh_Mensual" dataDxfId="24" dataCellStyle="Millares"/>
+    <tableColumn id="4" xr3:uid="{AE917A0B-BEE3-44CF-8201-1BB2407D64BC}" name="Estrato" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{EA2B95DF-A0B7-4076-A4EE-9A7C54135A3F}" name="Ciudad" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{9DDBC685-120C-47D2-892B-7ACB1E6F23B6}" name="Area_m2" dataDxfId="21" dataCellStyle="Millares"/>
+    <tableColumn id="7" xr3:uid="{BB47E6AE-81F0-47DC-9EA9-07396B917E24}" name="Factura_Mensual_COP" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="8" xr3:uid="{E60E1A0F-4138-4B92-A786-C27A4F8A5D9E}" name="Puede_Pagar_Solar" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{20854677-37AB-41FD-A44B-255102CC53C1}" name="Validar" dataDxfId="18">
       <calculatedColumnFormula>IF(COUNTIF(DATOS_LIMPIOS_ELECT[[#This Row],[ID_Cliente]:[Puede_Pagar_Solar]],NA()),"NO VALIDO","VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17112,14 +17112,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98DA349A-B299-4E59-A39B-EF8C85824EF5}" name="Tabla5" displayName="Tabla5" ref="A8:B11" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98DA349A-B299-4E59-A39B-EF8C85824EF5}" name="Tabla5" displayName="Tabla5" ref="A8:B11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A8:B11" xr:uid="{98DA349A-B299-4E59-A39B-EF8C85824EF5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EDEC0B80-54AA-43E5-8D75-862619F7699A}" name="Sector" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{DCE97202-0443-46C7-BB87-4DD6766EC589}" name="Cantidad" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{EDEC0B80-54AA-43E5-8D75-862619F7699A}" name="Sector" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DCE97202-0443-46C7-BB87-4DD6766EC589}" name="Cantidad" dataDxfId="14">
       <calculatedColumnFormula>COUNTIFS(DATOS_LIMPIOS_ELECT[Sector],'Estadistica Descriptiva'!A9,DATOS_LIMPIOS_ELECT[Validar],"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17128,7 +17128,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C5AE0C79-18FC-40D3-A84C-F689EE99A6F3}" name="Tabla6" displayName="Tabla6" ref="A2:D5" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C5AE0C79-18FC-40D3-A84C-F689EE99A6F3}" name="Tabla6" displayName="Tabla6" ref="A2:D5" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:D5" xr:uid="{C5AE0C79-18FC-40D3-A84C-F689EE99A6F3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -17146,14 +17146,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BAAE8CE-3F9A-4BFF-9390-A0DA96AA896C}" name="Tabla7" displayName="Tabla7" ref="A13:B18" totalsRowShown="0" headerRowBorderDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BAAE8CE-3F9A-4BFF-9390-A0DA96AA896C}" name="Tabla7" displayName="Tabla7" ref="A13:B18" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A13:B18" xr:uid="{3BAAE8CE-3F9A-4BFF-9390-A0DA96AA896C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EF19024B-3F0D-4CAD-96C7-0E90B4962987}" name="Ciudad"/>
-    <tableColumn id="2" xr3:uid="{15A96471-11E6-4717-A4D3-74BE7775D272}" name="Cantidad" dataDxfId="41">
+    <tableColumn id="2" xr3:uid="{15A96471-11E6-4717-A4D3-74BE7775D272}" name="Cantidad" dataDxfId="10">
       <calculatedColumnFormula>COUNTIFS(DATOS_LIMPIOS_ELECT[Ciudad],'Estadistica Descriptiva'!A14,DATOS_LIMPIOS_ELECT[Validar],"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17162,14 +17162,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F532F947-9BB6-43F8-97D1-745E1F2A7409}" name="Tabla8" displayName="Tabla8" ref="A20:B22" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F532F947-9BB6-43F8-97D1-745E1F2A7409}" name="Tabla8" displayName="Tabla8" ref="A20:B22" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A20:B22" xr:uid="{F532F947-9BB6-43F8-97D1-745E1F2A7409}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C131BE6D-6EF7-4AB6-9000-5A51DFBC946A}" name="Puede_Pagar_Solar"/>
-    <tableColumn id="2" xr3:uid="{82D4BB26-65A5-4269-AED4-8F1D28DC1AF6}" name="Cantidad" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{82D4BB26-65A5-4269-AED4-8F1D28DC1AF6}" name="Cantidad" dataDxfId="6">
       <calculatedColumnFormula>COUNTIFS(DATOS_LIMPIOS_ELECT[Puede_Pagar_Solar],'Estadistica Descriptiva'!A21,DATOS_LIMPIOS_ELECT[Validar],"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17178,14 +17178,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A25894AE-7124-44C3-A3F6-9A0A41BAF84F}" name="Tabla9" displayName="Tabla9" ref="A24:B30" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A25894AE-7124-44C3-A3F6-9A0A41BAF84F}" name="Tabla9" displayName="Tabla9" ref="A24:B30" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="A24:B30" xr:uid="{A25894AE-7124-44C3-A3F6-9A0A41BAF84F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A8FD5527-7FB5-4A51-8EE7-92E01FC0C298}" name="Estrato" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{7230B20B-230B-4E48-B47A-BE93AE64AC52}" name="Cantidad" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{A8FD5527-7FB5-4A51-8EE7-92E01FC0C298}" name="Estrato" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7230B20B-230B-4E48-B47A-BE93AE64AC52}" name="Cantidad" dataDxfId="0">
       <calculatedColumnFormula>COUNTIFS(DATOS_LIMPIOS_ELECT[Estrato],'Estadistica Descriptiva'!A25,DATOS_LIMPIOS_ELECT[Validar],"VALIDO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19803,7 +19803,7 @@
   <dimension ref="A1:K468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37507,7 +37507,7 @@
   <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L161" sqref="L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51411,7 +51411,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
